--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>297.576681081948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>134.611062513003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>219.8845929966191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>417.8586308895005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>332.456156107377</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>54.58162726953277</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>308.6998947937985</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>217.6253713148114</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>182.578221173322</v>
       </c>
     </row>
   </sheetData>

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>297.3992679413969</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>259.3722823057993</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>219.8845929966191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>417.8586308895005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>332.456156107377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -494,7 +494,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>54.58162726953277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -502,7 +502,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>308.6998947937985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -510,7 +510,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>217.6253713148114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -518,7 +518,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>182.578221173322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>297.3992679413969</v>
+        <v>300.1483514183047</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>259.3722823057993</v>
+        <v>263.7354620271842</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>43.243377414556</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>300.1483514183047</v>
+        <v>299.8534093853424</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>263.7354620271842</v>
+        <v>263.4763012722876</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>43.243377414556</v>
+        <v>89.24909925713041</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>299.8534093853424</v>
+        <v>301.7561839377991</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>263.4763012722876</v>
+        <v>265.1482382439698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>89.24909925713041</v>
+        <v>104.8834935330628</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>104.8834935330628</v>
+        <v>106.8596309524328</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>301.7561839377991</v>
+        <v>290.857077206541</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>265.1482382439698</v>
+        <v>255.5713708853153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>106.8596309524328</v>
+        <v>129.904732583406</v>
       </c>
     </row>
     <row r="6" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>290.857077206541</v>
+        <v>297.1915237518612</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>255.5713708853153</v>
+        <v>261.1373457721414</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>129.904732583406</v>
+        <v>296.1697454285493</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>83.7858225115758</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>290.857077206541</v>
+        <v>299.4116006163725</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>255.5713708853153</v>
+        <v>263.0880911113412</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>129.904732583406</v>
+        <v>298.3821894158251</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>109.0685676770513</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>299.4116006163725</v>
+        <v>299.8508321636064</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>263.0880911113412</v>
+        <v>263.4740367095735</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>298.3821894158251</v>
+        <v>298.8199108349496</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>109.0685676770513</v>
+        <v>115.0213653829944</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/Revenue.xlsx
+++ b/Revenue.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>299.8508321636064</v>
+        <v>249.4252133562813</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -438,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>263.4740367095735</v>
+        <v>230.2965364763066</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>298.8199108349496</v>
+        <v>26.3923650749424</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -454,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>115.0213653829944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
